--- a/biology/Botanique/Colutea_arborescens/Colutea_arborescens.xlsx
+++ b/biology/Botanique/Colutea_arborescens/Colutea_arborescens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Colutea arborescens
 Le Baguenaudier (Colutea arborescens), aussi appelé Baguenaudier arborescent ou Arbre à vessies, est un arbrisseau de la famille des Fabacées (ou Légumineuses) qui se caractérise par ses fruits nommés "baguenaudes", gousses brun rougeâtre qui enflent à maturité et deviennent translucides. D'où le nom populaire d'Arbre à vessies qui lui est parfois donné.
@@ -515,7 +527,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Arbrisseau très ramifié, pouvant atteindre trois mètres, généralement plus petit (0,5 à 1 m).
 Les feuilles caduques imparipennées comportant de sept à treize folioles ovales ou elliptiques à nombreuses nervures.
@@ -551,13 +565,15 @@
           <t>Écologie et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Arbrisseau assez courant dans les garrigues méditerranéennes (sol calcaire), surtout à l'étage collinéen, présent également en montagne jusqu'à 1 500 mètres. Il est plus rare dans le reste de l'Europe occidentale et de la France, où on peut le rencontrer sur les coteaux ensoleillés de l'Est, du Massif central et du Centre. Ailleurs, il est naturalisé ou subspontané. Ainsi sur les flancs du Terril de Pinchonvalles à Givenchy en Gohelle grâce au microclimat des pentes de couleurs noires des baguenaudiers poussent dans l'ex bassin minier du Pas-de-Calais.
 Floraison : mai à juillet
 Pollinisation : entomogame
 Dissémination : barochore
-En Suisse, on le rencontre principalement en Valais et au Tessin[1].
+En Suisse, on le rencontre principalement en Valais et au Tessin.
 </t>
         </is>
       </c>
@@ -586,7 +602,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les graines ont des vertus purgatives qui lui valent aussi le nom de séné bâtard.
 </t>
@@ -617,11 +635,13 @@
           <t>Vocabulaire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mot « baguenaudier » vient du provençal baganaudo, dérivé du latin baca, baie.
 Le verbe « baguenauder » signifie « S'amuser à des choses vaines et frivoles » en référence aux enfants qui s'amusent à éclater des baguenaudes. Ce verbe deviendra mystérieux et populaire avec la chanson de la publicité pour le fromage Belle des champs de Richard Gotainer en 1982 : Tu baguenaudes dans les pâturages...
-Le jeu du baguenaudier est un casse-tête inventé par Jérôme Cardan[2] ; le mathématicien Édouard Lucas lui a consacré une étude détaillée dans ses Récréations Mathématiques.
+Le jeu du baguenaudier est un casse-tête inventé par Jérôme Cardan ; le mathématicien Édouard Lucas lui a consacré une étude détaillée dans ses Récréations Mathématiques.
 </t>
         </is>
       </c>
